--- a/PricerAndQutation/OptionPricer_v2_20171215_night.xlsx
+++ b/PricerAndQutation/OptionPricer_v2_20171215_night.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="offer_van combo" sheetId="6" r:id="rId1"/>
@@ -787,22 +787,22 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="###,###,##0.0000"/>
-    <numFmt numFmtId="177" formatCode="0.0000"/>
-    <numFmt numFmtId="178" formatCode="###,###,##0"/>
-    <numFmt numFmtId="180" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="###,###,##0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="###,###,##0"/>
+    <numFmt numFmtId="167" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -810,21 +810,21 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -832,7 +832,7 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -840,7 +840,7 @@
       <b/>
       <sz val="11"/>
       <color theme="3" tint="0.39997558519241921"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -861,7 +861,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -870,7 +870,7 @@
       <b/>
       <sz val="10"/>
       <color theme="4" tint="-0.249977111117893"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -879,7 +879,7 @@
       <b/>
       <sz val="10"/>
       <color theme="5" tint="-0.249977111117893"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -887,7 +887,7 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -896,14 +896,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -918,7 +918,7 @@
       <b/>
       <sz val="11"/>
       <color theme="4" tint="-0.499984740745262"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -927,14 +927,14 @@
       <b/>
       <sz val="11"/>
       <color theme="4" tint="-0.499984740745262"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FFC00000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -942,20 +942,20 @@
     <font>
       <sz val="9"/>
       <color rgb="FFC00000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -963,7 +963,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -971,7 +971,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFC00000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -979,7 +979,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1016,7 +1016,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1273,8 +1273,8 @@
     <xf numFmtId="14" fontId="5" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="5" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="5" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="5" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="5" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="5" fillId="9" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1282,9 +1282,9 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="5" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="5" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="5" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="5" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1317,9 +1317,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="4" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="4" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="4" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="4" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1331,13 +1331,13 @@
     <xf numFmtId="0" fontId="5" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="5" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1346,13 +1346,13 @@
     <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="5" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1379,25 +1379,25 @@
     <xf numFmtId="0" fontId="23" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="22" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="22" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="22" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="22" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="22" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="22" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="22" fillId="9" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="22" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="22" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="22" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="22" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="22" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="22" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="22" fillId="9" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="22" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="22" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="22" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="22" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="22" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="22" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="22" fillId="12" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="24" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="25" fillId="13" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1443,6 +1443,15 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1452,23 +1461,32 @@
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="10" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="7" fillId="10" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="7" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="21" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1476,29 +1494,11 @@
     <xf numFmtId="0" fontId="21" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="7" fillId="10" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="7" fillId="10" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1525,21 +1525,20 @@
   <volType type="realTimeData">
     <main first="wdf.rtq">
       <tp>
-        <v>3824</v>
+        <v>3885</v>
         <stp/>
         <stp>RB1805</stp>
         <stp>LastPrice</stp>
         <tr r="H8" s="1"/>
+        <tr r="H8" s="8"/>
         <tr r="H8" s="7"/>
-        <tr r="H8" s="8"/>
       </tp>
       <tp>
-        <v>3597</v>
+        <v>3643</v>
         <stp/>
         <stp>RB1810</stp>
         <stp>LastPrice</stp>
         <tr r="H10" s="1"/>
-        <tr r="H11" s="1"/>
       </tp>
     </main>
   </volType>
@@ -1840,18 +1839,18 @@
       <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="9" style="6"/>
-    <col min="2" max="2" width="10.5" style="6" customWidth="1"/>
-    <col min="3" max="3" width="8.75" style="6" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="8.77734375" style="6" hidden="1" customWidth="1"/>
     <col min="4" max="6" width="9" style="6"/>
-    <col min="7" max="7" width="13.5" style="6" customWidth="1"/>
-    <col min="8" max="8" width="11.25" style="6" customWidth="1"/>
-    <col min="9" max="9" width="11.125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="13.44140625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="11.21875" style="6" customWidth="1"/>
+    <col min="9" max="9" width="11.109375" style="6" customWidth="1"/>
     <col min="10" max="10" width="9" style="6"/>
     <col min="11" max="15" width="9" style="6" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="10.75" style="6" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="10.77734375" style="6" hidden="1" customWidth="1"/>
     <col min="17" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
@@ -1862,7 +1861,7 @@
       <c r="C1" s="110"/>
       <c r="D1" s="110"/>
     </row>
-    <row r="2" spans="1:17" ht="12" thickTop="1"/>
+    <row r="2" spans="1:17" ht="12.6" thickTop="1"/>
     <row r="3" spans="1:17">
       <c r="B3" s="29"/>
       <c r="C3" s="29"/>
@@ -2218,52 +2217,52 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:T35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="17" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="17" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="3" width="9" style="6"/>
     <col min="4" max="4" width="9" style="6" customWidth="1"/>
     <col min="5" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="14.25" thickBot="1">
-      <c r="B1" s="123" t="s">
+    <row r="1" spans="2:20" ht="15" thickBot="1">
+      <c r="B1" s="122" t="s">
         <v>118</v>
       </c>
-      <c r="C1" s="123"/>
-    </row>
-    <row r="2" spans="2:20" ht="12" thickTop="1"/>
-    <row r="3" spans="2:20" ht="12.75" thickBot="1">
-      <c r="B3" s="124" t="s">
+      <c r="C1" s="122"/>
+    </row>
+    <row r="2" spans="2:20" ht="12.6" thickTop="1"/>
+    <row r="3" spans="2:20" ht="14.4" thickBot="1">
+      <c r="B3" s="121" t="s">
         <v>119</v>
       </c>
-      <c r="C3" s="124"/>
-      <c r="D3" s="124"/>
-      <c r="E3" s="124"/>
-      <c r="G3" s="125" t="s">
+      <c r="C3" s="121"/>
+      <c r="D3" s="121"/>
+      <c r="E3" s="121"/>
+      <c r="G3" s="118" t="s">
         <v>120</v>
       </c>
-      <c r="H3" s="125"/>
-      <c r="I3" s="125"/>
-      <c r="J3" s="125"/>
-      <c r="L3" s="124" t="s">
+      <c r="H3" s="118"/>
+      <c r="I3" s="118"/>
+      <c r="J3" s="118"/>
+      <c r="L3" s="121" t="s">
         <v>192</v>
       </c>
-      <c r="M3" s="124"/>
-      <c r="N3" s="124"/>
-      <c r="O3" s="124"/>
-      <c r="Q3" s="125" t="s">
+      <c r="M3" s="121"/>
+      <c r="N3" s="121"/>
+      <c r="O3" s="121"/>
+      <c r="Q3" s="118" t="s">
         <v>193</v>
       </c>
-      <c r="R3" s="125"/>
-      <c r="S3" s="125"/>
-      <c r="T3" s="125"/>
-    </row>
-    <row r="4" spans="2:20" ht="15" thickTop="1" thickBot="1">
+      <c r="R3" s="118"/>
+      <c r="S3" s="118"/>
+      <c r="T3" s="118"/>
+    </row>
+    <row r="4" spans="2:20" ht="15.6" thickTop="1" thickBot="1">
       <c r="B4" s="119" t="s">
         <v>121</v>
       </c>
@@ -2289,17 +2288,17 @@
       <c r="S4" s="119"/>
       <c r="T4" s="119"/>
     </row>
-    <row r="5" spans="2:20" ht="14.25" thickTop="1">
+    <row r="5" spans="2:20" ht="15" thickTop="1">
       <c r="B5" s="33" t="s">
         <v>122</v>
       </c>
       <c r="C5" s="34"/>
       <c r="D5" s="35"/>
       <c r="E5" s="36"/>
-      <c r="G5" s="122" t="s">
+      <c r="G5" s="117" t="s">
         <v>123</v>
       </c>
-      <c r="H5" s="122"/>
+      <c r="H5" s="117"/>
       <c r="I5" s="35"/>
       <c r="J5" s="36"/>
       <c r="L5" s="33" t="s">
@@ -2308,374 +2307,374 @@
       <c r="M5" s="34"/>
       <c r="N5" s="35"/>
       <c r="O5" s="36"/>
-      <c r="Q5" s="122" t="s">
+      <c r="Q5" s="117" t="s">
         <v>123</v>
       </c>
-      <c r="R5" s="122"/>
+      <c r="R5" s="117"/>
       <c r="S5" s="35"/>
       <c r="T5" s="36"/>
     </row>
-    <row r="6" spans="2:20" ht="13.5">
-      <c r="B6" s="111" t="s">
+    <row r="6" spans="2:20" ht="14.4">
+      <c r="B6" s="114" t="s">
         <v>124</v>
       </c>
-      <c r="C6" s="111"/>
-      <c r="D6" s="112" t="s">
+      <c r="C6" s="114"/>
+      <c r="D6" s="115" t="s">
         <v>125</v>
       </c>
-      <c r="E6" s="113"/>
-      <c r="G6" s="122" t="s">
+      <c r="E6" s="116"/>
+      <c r="G6" s="117" t="s">
         <v>126</v>
       </c>
-      <c r="H6" s="122"/>
-      <c r="I6" s="112"/>
-      <c r="J6" s="113"/>
-      <c r="L6" s="111" t="s">
+      <c r="H6" s="117"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="116"/>
+      <c r="L6" s="114" t="s">
         <v>124</v>
       </c>
-      <c r="M6" s="111"/>
-      <c r="N6" s="112" t="s">
+      <c r="M6" s="114"/>
+      <c r="N6" s="115" t="s">
         <v>125</v>
       </c>
-      <c r="O6" s="113"/>
-      <c r="Q6" s="122" t="s">
+      <c r="O6" s="116"/>
+      <c r="Q6" s="117" t="s">
         <v>126</v>
       </c>
-      <c r="R6" s="122"/>
-      <c r="S6" s="112"/>
-      <c r="T6" s="113"/>
-    </row>
-    <row r="7" spans="2:20" ht="13.5">
-      <c r="B7" s="111" t="s">
+      <c r="R6" s="117"/>
+      <c r="S6" s="115"/>
+      <c r="T6" s="116"/>
+    </row>
+    <row r="7" spans="2:20" ht="14.4">
+      <c r="B7" s="114" t="s">
         <v>127</v>
       </c>
-      <c r="C7" s="111"/>
-      <c r="D7" s="112" t="s">
+      <c r="C7" s="114"/>
+      <c r="D7" s="115" t="s">
         <v>125</v>
       </c>
-      <c r="E7" s="113"/>
-      <c r="G7" s="122" t="s">
+      <c r="E7" s="116"/>
+      <c r="G7" s="117" t="s">
         <v>128</v>
       </c>
-      <c r="H7" s="122"/>
-      <c r="I7" s="112"/>
-      <c r="J7" s="113"/>
-      <c r="L7" s="111" t="s">
+      <c r="H7" s="117"/>
+      <c r="I7" s="115"/>
+      <c r="J7" s="116"/>
+      <c r="L7" s="114" t="s">
         <v>127</v>
       </c>
-      <c r="M7" s="111"/>
-      <c r="N7" s="112" t="s">
+      <c r="M7" s="114"/>
+      <c r="N7" s="115" t="s">
         <v>125</v>
       </c>
-      <c r="O7" s="113"/>
-      <c r="Q7" s="122" t="s">
+      <c r="O7" s="116"/>
+      <c r="Q7" s="117" t="s">
         <v>128</v>
       </c>
-      <c r="R7" s="122"/>
-      <c r="S7" s="112"/>
-      <c r="T7" s="113"/>
-    </row>
-    <row r="8" spans="2:20" ht="13.5">
-      <c r="B8" s="111" t="s">
+      <c r="R7" s="117"/>
+      <c r="S7" s="115"/>
+      <c r="T7" s="116"/>
+    </row>
+    <row r="8" spans="2:20" ht="14.4">
+      <c r="B8" s="114" t="s">
         <v>129</v>
       </c>
-      <c r="C8" s="111"/>
-      <c r="D8" s="112">
+      <c r="C8" s="114"/>
+      <c r="D8" s="115">
         <f>D13*D15</f>
         <v>305000</v>
       </c>
-      <c r="E8" s="113"/>
-      <c r="G8" s="122" t="s">
+      <c r="E8" s="116"/>
+      <c r="G8" s="117" t="s">
         <v>130</v>
       </c>
-      <c r="H8" s="122"/>
-      <c r="I8" s="112"/>
-      <c r="J8" s="113"/>
-      <c r="L8" s="111" t="s">
+      <c r="H8" s="117"/>
+      <c r="I8" s="115"/>
+      <c r="J8" s="116"/>
+      <c r="L8" s="114" t="s">
         <v>129</v>
       </c>
-      <c r="M8" s="111"/>
-      <c r="N8" s="112">
+      <c r="M8" s="114"/>
+      <c r="N8" s="115">
         <f>N14*N16</f>
         <v>305000</v>
       </c>
-      <c r="O8" s="113"/>
-      <c r="Q8" s="122" t="s">
+      <c r="O8" s="116"/>
+      <c r="Q8" s="117" t="s">
         <v>130</v>
       </c>
-      <c r="R8" s="122"/>
-      <c r="S8" s="112"/>
-      <c r="T8" s="113"/>
-    </row>
-    <row r="9" spans="2:20" ht="13.5">
-      <c r="B9" s="111" t="s">
+      <c r="R8" s="117"/>
+      <c r="S8" s="115"/>
+      <c r="T8" s="116"/>
+    </row>
+    <row r="9" spans="2:20" ht="14.4">
+      <c r="B9" s="114" t="s">
         <v>131</v>
       </c>
-      <c r="C9" s="111"/>
-      <c r="D9" s="112" t="s">
+      <c r="C9" s="114"/>
+      <c r="D9" s="115" t="s">
         <v>132</v>
       </c>
-      <c r="E9" s="113"/>
-      <c r="G9" s="122" t="s">
+      <c r="E9" s="116"/>
+      <c r="G9" s="117" t="s">
         <v>133</v>
       </c>
-      <c r="H9" s="122"/>
-      <c r="I9" s="112"/>
-      <c r="J9" s="113"/>
-      <c r="L9" s="111" t="s">
+      <c r="H9" s="117"/>
+      <c r="I9" s="115"/>
+      <c r="J9" s="116"/>
+      <c r="L9" s="114" t="s">
         <v>131</v>
       </c>
-      <c r="M9" s="111"/>
-      <c r="N9" s="112" t="s">
+      <c r="M9" s="114"/>
+      <c r="N9" s="115" t="s">
         <v>132</v>
       </c>
-      <c r="O9" s="113"/>
-      <c r="Q9" s="122" t="s">
+      <c r="O9" s="116"/>
+      <c r="Q9" s="117" t="s">
         <v>133</v>
       </c>
-      <c r="R9" s="122"/>
-      <c r="S9" s="112"/>
-      <c r="T9" s="113"/>
-    </row>
-    <row r="10" spans="2:20" ht="13.5">
-      <c r="B10" s="111" t="s">
+      <c r="R9" s="117"/>
+      <c r="S9" s="115"/>
+      <c r="T9" s="116"/>
+    </row>
+    <row r="10" spans="2:20" ht="14.4">
+      <c r="B10" s="114" t="s">
         <v>134</v>
       </c>
-      <c r="C10" s="111"/>
-      <c r="D10" s="112">
+      <c r="C10" s="114"/>
+      <c r="D10" s="115">
         <v>43084</v>
       </c>
-      <c r="E10" s="113"/>
+      <c r="E10" s="116"/>
       <c r="G10" s="30" t="s">
         <v>135</v>
       </c>
       <c r="H10" s="30"/>
-      <c r="I10" s="112"/>
-      <c r="J10" s="113"/>
-      <c r="L10" s="111" t="s">
+      <c r="I10" s="115"/>
+      <c r="J10" s="116"/>
+      <c r="L10" s="114" t="s">
         <v>134</v>
       </c>
-      <c r="M10" s="111"/>
-      <c r="N10" s="112">
+      <c r="M10" s="114"/>
+      <c r="N10" s="115">
         <v>43084</v>
       </c>
-      <c r="O10" s="113"/>
+      <c r="O10" s="116"/>
       <c r="Q10" s="62" t="s">
         <v>135</v>
       </c>
       <c r="R10" s="62"/>
-      <c r="S10" s="112"/>
-      <c r="T10" s="113"/>
-    </row>
-    <row r="11" spans="2:20" ht="13.5">
-      <c r="B11" s="111" t="s">
+      <c r="S10" s="115"/>
+      <c r="T10" s="116"/>
+    </row>
+    <row r="11" spans="2:20" ht="14.4">
+      <c r="B11" s="114" t="s">
         <v>136</v>
       </c>
-      <c r="C11" s="111"/>
-      <c r="D11" s="112">
+      <c r="C11" s="114"/>
+      <c r="D11" s="115">
         <v>3935</v>
       </c>
-      <c r="E11" s="113"/>
-      <c r="G11" s="122" t="s">
+      <c r="E11" s="116"/>
+      <c r="G11" s="117" t="s">
         <v>137</v>
       </c>
-      <c r="H11" s="122"/>
-      <c r="I11" s="112"/>
-      <c r="J11" s="113"/>
-      <c r="L11" s="111" t="s">
+      <c r="H11" s="117"/>
+      <c r="I11" s="115"/>
+      <c r="J11" s="116"/>
+      <c r="L11" s="114" t="s">
         <v>136</v>
       </c>
-      <c r="M11" s="111"/>
-      <c r="N11" s="112">
+      <c r="M11" s="114"/>
+      <c r="N11" s="115">
         <v>3935</v>
       </c>
-      <c r="O11" s="113"/>
-      <c r="Q11" s="122" t="s">
+      <c r="O11" s="116"/>
+      <c r="Q11" s="117" t="s">
         <v>137</v>
       </c>
-      <c r="R11" s="122"/>
-      <c r="S11" s="112"/>
-      <c r="T11" s="113"/>
-    </row>
-    <row r="12" spans="2:20" ht="13.5">
-      <c r="B12" s="111" t="s">
+      <c r="R11" s="117"/>
+      <c r="S11" s="115"/>
+      <c r="T11" s="116"/>
+    </row>
+    <row r="12" spans="2:20" ht="14.4">
+      <c r="B12" s="114" t="s">
         <v>138</v>
       </c>
-      <c r="C12" s="111"/>
-      <c r="D12" s="112">
+      <c r="C12" s="114"/>
+      <c r="D12" s="115">
         <v>3800</v>
       </c>
-      <c r="E12" s="113"/>
-      <c r="G12" s="122" t="s">
+      <c r="E12" s="116"/>
+      <c r="G12" s="117" t="s">
         <v>139</v>
       </c>
-      <c r="H12" s="122"/>
-      <c r="I12" s="112"/>
-      <c r="J12" s="113"/>
-      <c r="L12" s="111" t="s">
+      <c r="H12" s="117"/>
+      <c r="I12" s="115"/>
+      <c r="J12" s="116"/>
+      <c r="L12" s="114" t="s">
         <v>190</v>
       </c>
-      <c r="M12" s="111"/>
-      <c r="N12" s="112">
+      <c r="M12" s="114"/>
+      <c r="N12" s="115">
         <v>3800</v>
       </c>
-      <c r="O12" s="113"/>
-      <c r="Q12" s="122" t="s">
+      <c r="O12" s="116"/>
+      <c r="Q12" s="117" t="s">
         <v>194</v>
       </c>
-      <c r="R12" s="122"/>
-      <c r="S12" s="112"/>
-      <c r="T12" s="113"/>
-    </row>
-    <row r="13" spans="2:20" ht="13.5">
-      <c r="B13" s="111" t="s">
+      <c r="R12" s="117"/>
+      <c r="S12" s="115"/>
+      <c r="T12" s="116"/>
+    </row>
+    <row r="13" spans="2:20" ht="14.4">
+      <c r="B13" s="114" t="s">
         <v>140</v>
       </c>
-      <c r="C13" s="111"/>
-      <c r="D13" s="112">
+      <c r="C13" s="114"/>
+      <c r="D13" s="115">
         <v>61</v>
       </c>
-      <c r="E13" s="113"/>
-      <c r="G13" s="122" t="s">
+      <c r="E13" s="116"/>
+      <c r="G13" s="117" t="s">
         <v>141</v>
       </c>
-      <c r="H13" s="122"/>
-      <c r="I13" s="112"/>
-      <c r="J13" s="113"/>
-      <c r="L13" s="111" t="s">
+      <c r="H13" s="117"/>
+      <c r="I13" s="115"/>
+      <c r="J13" s="116"/>
+      <c r="L13" s="114" t="s">
         <v>191</v>
       </c>
-      <c r="M13" s="111"/>
-      <c r="N13" s="112">
+      <c r="M13" s="114"/>
+      <c r="N13" s="115">
         <v>3800</v>
       </c>
-      <c r="O13" s="113"/>
-      <c r="Q13" s="122" t="s">
+      <c r="O13" s="116"/>
+      <c r="Q13" s="117" t="s">
         <v>195</v>
       </c>
-      <c r="R13" s="122"/>
-      <c r="S13" s="112"/>
-      <c r="T13" s="113"/>
-    </row>
-    <row r="14" spans="2:20" ht="13.5">
-      <c r="B14" s="111" t="s">
+      <c r="R13" s="117"/>
+      <c r="S13" s="115"/>
+      <c r="T13" s="116"/>
+    </row>
+    <row r="14" spans="2:20" ht="14.4">
+      <c r="B14" s="114" t="s">
         <v>142</v>
       </c>
-      <c r="C14" s="111"/>
-      <c r="D14" s="112" t="s">
+      <c r="C14" s="114"/>
+      <c r="D14" s="115" t="s">
         <v>143</v>
       </c>
-      <c r="E14" s="113"/>
-      <c r="G14" s="122" t="s">
+      <c r="E14" s="116"/>
+      <c r="G14" s="117" t="s">
         <v>144</v>
       </c>
-      <c r="H14" s="122"/>
+      <c r="H14" s="117"/>
       <c r="I14" s="31"/>
       <c r="J14" s="32"/>
-      <c r="L14" s="111" t="s">
+      <c r="L14" s="114" t="s">
         <v>140</v>
       </c>
-      <c r="M14" s="111"/>
-      <c r="N14" s="112">
+      <c r="M14" s="114"/>
+      <c r="N14" s="115">
         <v>61</v>
       </c>
-      <c r="O14" s="113"/>
-      <c r="Q14" s="122" t="s">
+      <c r="O14" s="116"/>
+      <c r="Q14" s="117" t="s">
         <v>141</v>
       </c>
-      <c r="R14" s="122"/>
-      <c r="S14" s="112"/>
-      <c r="T14" s="113"/>
-    </row>
-    <row r="15" spans="2:20" ht="13.5">
-      <c r="B15" s="111" t="s">
+      <c r="R14" s="117"/>
+      <c r="S14" s="115"/>
+      <c r="T14" s="116"/>
+    </row>
+    <row r="15" spans="2:20" ht="14.4">
+      <c r="B15" s="114" t="s">
         <v>145</v>
       </c>
-      <c r="C15" s="111"/>
-      <c r="D15" s="112">
+      <c r="C15" s="114"/>
+      <c r="D15" s="115">
         <v>5000</v>
       </c>
-      <c r="E15" s="113"/>
-      <c r="G15" s="122" t="s">
+      <c r="E15" s="116"/>
+      <c r="G15" s="117" t="s">
         <v>146</v>
       </c>
-      <c r="H15" s="122"/>
-      <c r="I15" s="112"/>
-      <c r="J15" s="113"/>
-      <c r="L15" s="111" t="s">
+      <c r="H15" s="117"/>
+      <c r="I15" s="115"/>
+      <c r="J15" s="116"/>
+      <c r="L15" s="114" t="s">
         <v>142</v>
       </c>
-      <c r="M15" s="111"/>
-      <c r="N15" s="112" t="s">
+      <c r="M15" s="114"/>
+      <c r="N15" s="115" t="s">
         <v>143</v>
       </c>
-      <c r="O15" s="113"/>
-      <c r="Q15" s="122" t="s">
+      <c r="O15" s="116"/>
+      <c r="Q15" s="117" t="s">
         <v>144</v>
       </c>
-      <c r="R15" s="122"/>
+      <c r="R15" s="117"/>
       <c r="S15" s="60"/>
       <c r="T15" s="61"/>
     </row>
-    <row r="16" spans="2:20" ht="14.25" thickBot="1">
-      <c r="B16" s="114" t="s">
+    <row r="16" spans="2:20" ht="15" thickBot="1">
+      <c r="B16" s="120" t="s">
         <v>147</v>
       </c>
-      <c r="C16" s="114"/>
-      <c r="D16" s="115" t="s">
+      <c r="C16" s="120"/>
+      <c r="D16" s="112" t="s">
         <v>148</v>
       </c>
-      <c r="E16" s="116"/>
-      <c r="G16" s="117" t="s">
+      <c r="E16" s="113"/>
+      <c r="G16" s="111" t="s">
         <v>149</v>
       </c>
-      <c r="H16" s="117"/>
-      <c r="I16" s="115"/>
-      <c r="J16" s="116"/>
-      <c r="L16" s="111" t="s">
+      <c r="H16" s="111"/>
+      <c r="I16" s="112"/>
+      <c r="J16" s="113"/>
+      <c r="L16" s="114" t="s">
         <v>145</v>
       </c>
-      <c r="M16" s="111"/>
-      <c r="N16" s="112">
+      <c r="M16" s="114"/>
+      <c r="N16" s="115">
         <v>5000</v>
       </c>
-      <c r="O16" s="113"/>
-      <c r="Q16" s="122" t="s">
+      <c r="O16" s="116"/>
+      <c r="Q16" s="117" t="s">
         <v>146</v>
       </c>
-      <c r="R16" s="122"/>
-      <c r="S16" s="112"/>
-      <c r="T16" s="113"/>
-    </row>
-    <row r="17" spans="2:20" ht="15" thickTop="1" thickBot="1">
-      <c r="L17" s="114" t="s">
+      <c r="R16" s="117"/>
+      <c r="S16" s="115"/>
+      <c r="T16" s="116"/>
+    </row>
+    <row r="17" spans="2:20" ht="15.6" thickTop="1" thickBot="1">
+      <c r="L17" s="120" t="s">
         <v>147</v>
       </c>
-      <c r="M17" s="114"/>
-      <c r="N17" s="115" t="s">
+      <c r="M17" s="120"/>
+      <c r="N17" s="112" t="s">
         <v>148</v>
       </c>
-      <c r="O17" s="116"/>
-      <c r="Q17" s="117" t="s">
+      <c r="O17" s="113"/>
+      <c r="Q17" s="111" t="s">
         <v>149</v>
       </c>
-      <c r="R17" s="117"/>
-      <c r="S17" s="115"/>
-      <c r="T17" s="116"/>
-    </row>
-    <row r="18" spans="2:20" ht="12" thickTop="1"/>
-    <row r="19" spans="2:20" ht="13.5">
+      <c r="R17" s="111"/>
+      <c r="S17" s="112"/>
+      <c r="T17" s="113"/>
+    </row>
+    <row r="18" spans="2:20" ht="12.6" thickTop="1"/>
+    <row r="19" spans="2:20" ht="14.4">
       <c r="B19" s="28" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="21" spans="2:20" ht="12" thickBot="1">
+    <row r="21" spans="2:20" ht="12.6" thickBot="1">
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
     </row>
-    <row r="22" spans="2:20" ht="15" thickTop="1" thickBot="1">
+    <row r="22" spans="2:20" ht="15.6" thickTop="1" thickBot="1">
       <c r="B22" s="119" t="s">
         <v>121</v>
       </c>
@@ -2683,153 +2682,206 @@
       <c r="D22" s="119"/>
       <c r="E22" s="119"/>
     </row>
-    <row r="23" spans="2:20" ht="14.25" thickTop="1">
+    <row r="23" spans="2:20" ht="15" thickTop="1">
       <c r="B23" s="33" t="s">
         <v>122</v>
       </c>
       <c r="C23" s="34"/>
-      <c r="D23" s="120">
+      <c r="D23" s="126">
         <v>43084</v>
       </c>
-      <c r="E23" s="121"/>
-    </row>
-    <row r="24" spans="2:20" ht="13.5">
-      <c r="B24" s="111" t="s">
+      <c r="E23" s="127"/>
+    </row>
+    <row r="24" spans="2:20" ht="14.4">
+      <c r="B24" s="114" t="s">
         <v>124</v>
       </c>
-      <c r="C24" s="111"/>
-      <c r="D24" s="112" t="s">
+      <c r="C24" s="114"/>
+      <c r="D24" s="115" t="s">
         <v>208</v>
       </c>
-      <c r="E24" s="113"/>
-    </row>
-    <row r="25" spans="2:20" ht="13.5">
-      <c r="B25" s="111" t="s">
+      <c r="E24" s="116"/>
+    </row>
+    <row r="25" spans="2:20" ht="14.4">
+      <c r="B25" s="114" t="s">
         <v>127</v>
       </c>
-      <c r="C25" s="111"/>
-      <c r="D25" s="112" t="s">
+      <c r="C25" s="114"/>
+      <c r="D25" s="115" t="s">
         <v>209</v>
       </c>
-      <c r="E25" s="113"/>
-    </row>
-    <row r="26" spans="2:20" ht="13.5">
-      <c r="B26" s="111" t="s">
+      <c r="E25" s="116"/>
+    </row>
+    <row r="26" spans="2:20" ht="14.4">
+      <c r="B26" s="114" t="s">
         <v>129</v>
       </c>
-      <c r="C26" s="111"/>
-      <c r="D26" s="128">
+      <c r="C26" s="114"/>
+      <c r="D26" s="123">
         <f>D31*D33</f>
-        <v>1500000</v>
-      </c>
-      <c r="E26" s="129"/>
-    </row>
-    <row r="27" spans="2:20" ht="13.5">
-      <c r="B27" s="111" t="s">
+        <v>1280000</v>
+      </c>
+      <c r="E26" s="124"/>
+    </row>
+    <row r="27" spans="2:20" ht="14.4">
+      <c r="B27" s="114" t="s">
         <v>131</v>
       </c>
-      <c r="C27" s="111"/>
-      <c r="D27" s="112" t="s">
+      <c r="C27" s="114"/>
+      <c r="D27" s="115" t="s">
         <v>212</v>
       </c>
-      <c r="E27" s="113"/>
-    </row>
-    <row r="28" spans="2:20" ht="13.5">
-      <c r="B28" s="111" t="s">
+      <c r="E27" s="116"/>
+    </row>
+    <row r="28" spans="2:20" ht="14.4">
+      <c r="B28" s="114" t="s">
         <v>134</v>
       </c>
-      <c r="C28" s="111"/>
-      <c r="D28" s="118">
+      <c r="C28" s="114"/>
+      <c r="D28" s="125">
         <v>43140</v>
       </c>
-      <c r="E28" s="113"/>
-    </row>
-    <row r="29" spans="2:20" ht="13.5">
-      <c r="B29" s="111" t="s">
+      <c r="E28" s="116"/>
+    </row>
+    <row r="29" spans="2:20" ht="14.4">
+      <c r="B29" s="114" t="s">
         <v>136</v>
       </c>
-      <c r="C29" s="111"/>
-      <c r="D29" s="112">
-        <v>3587</v>
-      </c>
-      <c r="E29" s="113"/>
-    </row>
-    <row r="30" spans="2:20" ht="13.5">
-      <c r="B30" s="111" t="s">
+      <c r="C29" s="114"/>
+      <c r="D29" s="115">
+        <v>3628</v>
+      </c>
+      <c r="E29" s="116"/>
+    </row>
+    <row r="30" spans="2:20" ht="14.4">
+      <c r="B30" s="114" t="s">
         <v>138</v>
       </c>
-      <c r="C30" s="111"/>
-      <c r="D30" s="112">
+      <c r="C30" s="114"/>
+      <c r="D30" s="115">
         <v>3650</v>
       </c>
-      <c r="E30" s="113"/>
-    </row>
-    <row r="31" spans="2:20" ht="13.5">
-      <c r="B31" s="111" t="s">
+      <c r="E30" s="116"/>
+    </row>
+    <row r="31" spans="2:20" ht="14.4">
+      <c r="B31" s="114" t="s">
         <v>140</v>
       </c>
-      <c r="C31" s="111"/>
-      <c r="D31" s="112">
-        <v>150</v>
-      </c>
-      <c r="E31" s="113"/>
-    </row>
-    <row r="32" spans="2:20" ht="13.5">
-      <c r="B32" s="111" t="s">
+      <c r="C31" s="114"/>
+      <c r="D31" s="115">
+        <v>128</v>
+      </c>
+      <c r="E31" s="116"/>
+    </row>
+    <row r="32" spans="2:20" ht="14.4">
+      <c r="B32" s="114" t="s">
         <v>142</v>
       </c>
-      <c r="C32" s="111"/>
-      <c r="D32" s="112" t="s">
+      <c r="C32" s="114"/>
+      <c r="D32" s="115" t="s">
         <v>210</v>
       </c>
-      <c r="E32" s="113"/>
-    </row>
-    <row r="33" spans="2:5" ht="13.5">
-      <c r="B33" s="111" t="s">
+      <c r="E32" s="116"/>
+    </row>
+    <row r="33" spans="2:5" ht="14.4">
+      <c r="B33" s="114" t="s">
         <v>145</v>
       </c>
-      <c r="C33" s="111"/>
-      <c r="D33" s="128">
+      <c r="C33" s="114"/>
+      <c r="D33" s="123">
         <v>10000</v>
       </c>
-      <c r="E33" s="129"/>
-    </row>
-    <row r="34" spans="2:5" ht="14.25" thickBot="1">
-      <c r="B34" s="114" t="s">
+      <c r="E33" s="124"/>
+    </row>
+    <row r="34" spans="2:5" ht="15" thickBot="1">
+      <c r="B34" s="120" t="s">
         <v>147</v>
       </c>
-      <c r="C34" s="114"/>
-      <c r="D34" s="115" t="s">
+      <c r="C34" s="120"/>
+      <c r="D34" s="112" t="s">
         <v>211</v>
       </c>
-      <c r="E34" s="116"/>
-    </row>
-    <row r="35" spans="2:5" ht="12" thickTop="1"/>
+      <c r="E34" s="113"/>
+    </row>
+    <row r="35" spans="2:5" ht="12.6" thickTop="1"/>
   </sheetData>
   <mergeCells count="123">
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
     <mergeCell ref="G3:J3"/>
     <mergeCell ref="G4:J4"/>
     <mergeCell ref="G5:H5"/>
@@ -2854,82 +2906,29 @@
     <mergeCell ref="S11:T11"/>
     <mergeCell ref="Q13:R13"/>
     <mergeCell ref="S13:T13"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2945,21 +2944,21 @@
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="9" style="6"/>
-    <col min="2" max="2" width="10.5" style="6" customWidth="1"/>
-    <col min="3" max="3" width="8.75" style="6" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="8.77734375" style="6" customWidth="1"/>
     <col min="4" max="6" width="9" style="6"/>
-    <col min="7" max="8" width="13.5" style="6" customWidth="1"/>
-    <col min="9" max="9" width="13.5" style="6" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="11.25" style="6" customWidth="1"/>
-    <col min="11" max="11" width="11.125" style="6" customWidth="1"/>
+    <col min="7" max="8" width="13.44140625" style="6" customWidth="1"/>
+    <col min="9" max="9" width="13.44140625" style="6" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="11.21875" style="6" customWidth="1"/>
+    <col min="11" max="11" width="11.109375" style="6" customWidth="1"/>
     <col min="12" max="12" width="9" style="6"/>
     <col min="13" max="13" width="9" style="6" customWidth="1"/>
     <col min="14" max="17" width="9" style="6" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="10.75" style="6" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="10.125" style="6" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="10.77734375" style="6" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="10.109375" style="6" hidden="1" customWidth="1"/>
     <col min="20" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
@@ -2970,7 +2969,7 @@
       <c r="C1" s="110"/>
       <c r="D1" s="110"/>
     </row>
-    <row r="2" spans="1:21" ht="12" thickTop="1"/>
+    <row r="2" spans="1:21" ht="12.6" thickTop="1"/>
     <row r="3" spans="1:21">
       <c r="B3" s="29"/>
       <c r="C3" s="29"/>
@@ -2991,7 +2990,7 @@
       <c r="R3" s="29"/>
       <c r="S3" s="29"/>
     </row>
-    <row r="4" spans="1:21" ht="12" thickBot="1">
+    <row r="4" spans="1:21" ht="12.6" thickBot="1">
       <c r="A4" s="64"/>
       <c r="B4" s="17" t="s">
         <v>30</v>
@@ -3052,7 +3051,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="12" thickTop="1">
+    <row r="5" spans="1:21" ht="12.6" thickTop="1">
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
@@ -3074,7 +3073,7 @@
       <c r="T5" s="10"/>
       <c r="U5" s="10"/>
     </row>
-    <row r="7" spans="1:21" ht="12" thickBot="1">
+    <row r="7" spans="1:21" ht="12.6" thickBot="1">
       <c r="B7" s="17" t="s">
         <v>30</v>
       </c>
@@ -3134,7 +3133,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="12" thickTop="1">
+    <row r="8" spans="1:21" ht="12.6" thickTop="1">
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
@@ -3192,37 +3191,37 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:V39"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I41" sqref="I41"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="8.125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="8.109375" style="6" customWidth="1"/>
     <col min="2" max="2" width="9" style="6"/>
-    <col min="3" max="3" width="9.125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="6" customWidth="1"/>
     <col min="4" max="4" width="7" style="6" customWidth="1"/>
     <col min="5" max="11" width="9" style="6"/>
-    <col min="12" max="12" width="8.125" style="6" customWidth="1"/>
-    <col min="13" max="13" width="14.125" style="6" customWidth="1"/>
+    <col min="12" max="12" width="8.109375" style="6" customWidth="1"/>
+    <col min="13" max="13" width="14.109375" style="6" customWidth="1"/>
     <col min="14" max="14" width="9" style="6"/>
-    <col min="15" max="15" width="7.25" style="6" customWidth="1"/>
+    <col min="15" max="15" width="7.21875" style="6" customWidth="1"/>
     <col min="16" max="16" width="9" style="6"/>
-    <col min="17" max="17" width="10.125" style="6" customWidth="1"/>
-    <col min="18" max="18" width="6.5" style="6" customWidth="1"/>
-    <col min="19" max="19" width="9.625" style="6" customWidth="1"/>
+    <col min="17" max="17" width="10.109375" style="6" customWidth="1"/>
+    <col min="18" max="18" width="6.44140625" style="6" customWidth="1"/>
+    <col min="19" max="19" width="9.6640625" style="6" customWidth="1"/>
     <col min="20" max="21" width="9" style="6"/>
-    <col min="22" max="22" width="13.75" style="6" customWidth="1"/>
+    <col min="22" max="22" width="13.77734375" style="6" customWidth="1"/>
     <col min="23" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B1" s="123" t="s">
+      <c r="B1" s="122" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="123"/>
-    </row>
-    <row r="2" spans="1:22" ht="12" thickTop="1">
+      <c r="C1" s="122"/>
+    </row>
+    <row r="2" spans="1:22" ht="12.6" thickTop="1">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -3238,7 +3237,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="12" thickBot="1">
+    <row r="4" spans="1:22" ht="12.6" thickBot="1">
       <c r="B4" s="5" t="s">
         <v>18</v>
       </c>
@@ -3246,8 +3245,8 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="12" thickTop="1"/>
-    <row r="6" spans="1:22" ht="12" thickBot="1">
+    <row r="5" spans="1:22" ht="12.6" thickTop="1"/>
+    <row r="6" spans="1:22" ht="12.6" thickBot="1">
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -3270,7 +3269,7 @@
       <c r="U6" s="7"/>
       <c r="V6" s="7"/>
     </row>
-    <row r="7" spans="1:22" ht="12.75" thickTop="1" thickBot="1">
+    <row r="7" spans="1:22" ht="13.2" thickTop="1" thickBot="1">
       <c r="B7" s="18" t="s">
         <v>197</v>
       </c>
@@ -3333,7 +3332,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="12" thickTop="1">
+    <row r="8" spans="1:22" ht="12.6" thickTop="1">
       <c r="A8" s="63"/>
       <c r="B8" s="24" t="s">
         <v>198</v>
@@ -3356,13 +3355,13 @@
       </c>
       <c r="H8" s="20">
         <f>RTD("wdf.rtq",,F8,"LastPrice")</f>
-        <v>3824</v>
+        <v>3885</v>
       </c>
       <c r="I8" s="19">
         <v>3800</v>
       </c>
       <c r="J8" s="21">
-        <f t="shared" ref="J8:J13" ca="1" si="1">TODAY()</f>
+        <f t="shared" ref="J8:J10" ca="1" si="1">TODAY()</f>
         <v>43084</v>
       </c>
       <c r="K8" s="21">
@@ -3384,30 +3383,30 @@
       </c>
       <c r="P8" s="24">
         <f>_xll.dnetGBlackScholesNGreeks("price",$G8,$H8,$I8,$M8,$C$3,$N8,$O8,$C$4)*E8</f>
-        <v>-142.87179537465136</v>
+        <v>-178.34273545818405</v>
       </c>
       <c r="Q8" s="25">
         <v>80</v>
       </c>
       <c r="R8" s="24">
         <f t="shared" ref="R8:R9" si="4">Q8/10000*M8*H8</f>
-        <v>2.5144109589041097</v>
+        <v>2.5545205479452053</v>
       </c>
       <c r="S8" s="24">
         <f t="shared" ref="S8:S9" si="5">IF(P8&lt;=0,ABS(P8)+R8,P8-R8)</f>
-        <v>145.38620633355546</v>
+        <v>180.89725600612925</v>
       </c>
       <c r="T8" s="26">
         <f t="shared" ref="T8:T9" si="6">S8/H8</f>
-        <v>3.801940542195488E-2</v>
+        <v>4.656300025897793E-2</v>
       </c>
       <c r="U8" s="24">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$G8,$H8,$I8,$M8,$C$3,$N8,$O8,$C$4)*E8</f>
-        <v>-0.54535810215838865</v>
+        <v>-0.61697774240201397</v>
       </c>
       <c r="V8" s="24">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$G8,$H8,$I8,$M8,$C$3,$N8,$O8,$C$4)*E8</f>
-        <v>-4.3370504951109297</v>
+        <v>-4.2404751529149962</v>
       </c>
     </row>
     <row r="9" spans="1:22">
@@ -3507,7 +3506,7 @@
       </c>
       <c r="H10" s="11">
         <f>RTD("wdf.rtq",,F10,"LastPrice")</f>
-        <v>3597</v>
+        <v>3643</v>
       </c>
       <c r="I10" s="10">
         <v>3600</v>
@@ -3535,30 +3534,30 @@
       </c>
       <c r="P10" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$G10,$H10,$I10,$M10,$C$3,$N10,$O10,$C$4)*E10</f>
-        <v>116.39198847316129</v>
+        <v>95.451718949563201</v>
       </c>
       <c r="Q10" s="15">
         <v>80</v>
       </c>
       <c r="R10" s="13">
         <f t="shared" ref="R10" si="10">Q10/10000*M10*H10</f>
-        <v>4.4149479452054798</v>
+        <v>4.4714082191780822</v>
       </c>
       <c r="S10" s="13">
         <f t="shared" ref="S10" si="11">IF(P10&lt;=0,ABS(P10)+R10,P10-R10)</f>
-        <v>111.97704052795581</v>
+        <v>90.980310730385114</v>
       </c>
       <c r="T10" s="14">
         <f t="shared" ref="T10" si="12">S10/H10</f>
-        <v>3.1130675709745845E-2</v>
+        <v>2.4974007886463111E-2</v>
       </c>
       <c r="U10" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$G10,$H10,$I10,$M10,$C$3,$N10,$O10,$C$4)*E10</f>
-        <v>-0.48663120693390738</v>
+        <v>-0.42412709354948674</v>
       </c>
       <c r="V10" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$G10,$H10,$I10,$M10,$C$3,$N10,$O10,$C$4)*E10</f>
-        <v>5.6010922155393246</v>
+        <v>5.5756586732079541</v>
       </c>
     </row>
     <row r="11" spans="1:22">
@@ -3581,8 +3580,7 @@
         <v>85</v>
       </c>
       <c r="H11" s="11">
-        <f>RTD("wdf.rtq",,F11,"LastPrice")</f>
-        <v>3597</v>
+        <v>3628</v>
       </c>
       <c r="I11" s="10">
         <v>3650</v>
@@ -3606,34 +3604,34 @@
         <v>0</v>
       </c>
       <c r="O11" s="9">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="P11" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$G11,$H11,$I11,$M11,$C$3,$N11,$O11,$C$4)*E11</f>
-        <v>139.26611799972738</v>
+        <v>128.17956336554403</v>
       </c>
       <c r="Q11" s="15">
         <v>80</v>
       </c>
       <c r="R11" s="13">
         <f t="shared" ref="R11" si="16">Q11/10000*M11*H11</f>
-        <v>4.2572712328767119</v>
+        <v>4.2939616438356163</v>
       </c>
       <c r="S11" s="13">
         <f t="shared" ref="S11" si="17">IF(P11&lt;=0,ABS(P11)+R11,P11-R11)</f>
-        <v>135.00884676685067</v>
+        <v>123.88560172170841</v>
       </c>
       <c r="T11" s="14">
         <f t="shared" ref="T11" si="18">S11/H11</f>
-        <v>3.7533735548193121E-2</v>
+        <v>3.4147078754605403E-2</v>
       </c>
       <c r="U11" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$G11,$H11,$I11,$M11,$C$3,$N11,$O11,$C$4)*E11</f>
-        <v>-0.55862377813582498</v>
+        <v>-0.51222687377503462</v>
       </c>
       <c r="V11" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$G11,$H11,$I11,$M11,$C$3,$N11,$O11,$C$4)*E11</f>
-        <v>5.4400203310937059</v>
+        <v>5.5473027541280544</v>
       </c>
     </row>
     <row r="12" spans="1:22">
@@ -3658,7 +3656,7 @@
       <c r="T12" s="14"/>
       <c r="U12" s="13">
         <f>1000*U11</f>
-        <v>-558.62377813582498</v>
+        <v>-512.22687377503462</v>
       </c>
       <c r="V12" s="13"/>
     </row>
@@ -3708,7 +3706,7 @@
       <c r="U14" s="13"/>
       <c r="V14" s="13"/>
     </row>
-    <row r="15" spans="1:22" ht="13.5">
+    <row r="15" spans="1:22" ht="14.4">
       <c r="B15" s="13"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
@@ -3927,8 +3925,12 @@
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="10"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
+      <c r="M24" s="12">
+        <v>3630</v>
+      </c>
+      <c r="N24" s="12">
+        <v>3874</v>
+      </c>
       <c r="O24" s="9"/>
       <c r="P24" s="13"/>
       <c r="Q24" s="15"/>
@@ -3950,8 +3952,12 @@
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="10"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="12"/>
+      <c r="M25" s="12">
+        <v>3643</v>
+      </c>
+      <c r="N25" s="12">
+        <v>3885</v>
+      </c>
       <c r="O25" s="9"/>
       <c r="P25" s="13"/>
       <c r="Q25" s="15"/>
@@ -3973,8 +3979,14 @@
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="10"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="12"/>
+      <c r="M26" s="12">
+        <f>M25/M24</f>
+        <v>1.0035812672176307</v>
+      </c>
+      <c r="N26" s="12">
+        <f>N25/N24</f>
+        <v>1.0028394424367579</v>
+      </c>
       <c r="O26" s="9"/>
       <c r="P26" s="13"/>
       <c r="Q26" s="15"/>
@@ -4331,37 +4343,37 @@
       <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="8.125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="8.109375" style="6" customWidth="1"/>
     <col min="2" max="2" width="9" style="6"/>
-    <col min="3" max="3" width="9.125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="6" customWidth="1"/>
     <col min="4" max="4" width="7" style="6" customWidth="1"/>
-    <col min="5" max="5" width="9.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.21875" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="9" style="6"/>
-    <col min="8" max="8" width="9.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="8.125" style="6" customWidth="1"/>
-    <col min="14" max="14" width="9.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.25" style="6" customWidth="1"/>
-    <col min="16" max="16" width="9.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.125" style="6" customWidth="1"/>
-    <col min="18" max="19" width="6.5" style="6" customWidth="1"/>
+    <col min="8" max="8" width="9.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="8.109375" style="6" customWidth="1"/>
+    <col min="14" max="14" width="9.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.21875" style="6" customWidth="1"/>
+    <col min="16" max="16" width="9.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.109375" style="6" customWidth="1"/>
+    <col min="18" max="19" width="6.44140625" style="6" customWidth="1"/>
     <col min="20" max="20" width="9" style="6" customWidth="1"/>
-    <col min="21" max="21" width="9.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.75" style="6" customWidth="1"/>
+    <col min="21" max="21" width="9.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.77734375" style="6" customWidth="1"/>
     <col min="23" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B1" s="126" t="s">
+      <c r="B1" s="128" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="123"/>
-    </row>
-    <row r="2" spans="1:22" ht="12" thickTop="1">
+      <c r="C1" s="122"/>
+    </row>
+    <row r="2" spans="1:22" ht="12.6" thickTop="1">
       <c r="B2" s="37" t="s">
         <v>0</v>
       </c>
@@ -4377,7 +4389,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="12" thickBot="1">
+    <row r="4" spans="1:22" ht="12.6" thickBot="1">
       <c r="B4" s="38" t="s">
         <v>18</v>
       </c>
@@ -4385,8 +4397,8 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="12" thickTop="1"/>
-    <row r="6" spans="1:22" ht="12" thickBot="1">
+    <row r="5" spans="1:22" ht="12.6" thickTop="1"/>
+    <row r="6" spans="1:22" ht="12.6" thickBot="1">
       <c r="B6" s="39"/>
       <c r="C6" s="39"/>
       <c r="D6" s="39"/>
@@ -4409,7 +4421,7 @@
       <c r="U6" s="39"/>
       <c r="V6" s="39"/>
     </row>
-    <row r="7" spans="1:22" ht="15" thickTop="1" thickBot="1">
+    <row r="7" spans="1:22" ht="15.6" thickTop="1" thickBot="1">
       <c r="A7" s="69"/>
       <c r="B7" s="70" t="s">
         <v>29</v>
@@ -4473,7 +4485,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="14.25" thickTop="1">
+    <row r="8" spans="1:22" ht="15" thickTop="1">
       <c r="A8" s="72"/>
       <c r="B8" s="73" t="s">
         <v>200</v>
@@ -4541,7 +4553,7 @@
         <v>-0.11406523569462124</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="13.5">
+    <row r="9" spans="1:22" ht="14.4">
       <c r="A9" s="72"/>
       <c r="B9" s="81" t="s">
         <v>201</v>
@@ -4611,7 +4623,7 @@
         <v>0.11407976820886745</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="13.5">
+    <row r="10" spans="1:22" ht="14.4">
       <c r="A10" s="72"/>
       <c r="B10" s="89" t="s">
         <v>202</v>
@@ -4682,7 +4694,7 @@
         <v>1.4532514246212713E-5</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="13.5">
+    <row r="11" spans="1:22" ht="14.4">
       <c r="A11" s="95"/>
       <c r="B11" s="81"/>
       <c r="C11" s="82"/>
@@ -4706,7 +4718,7 @@
       <c r="U11" s="81"/>
       <c r="V11" s="81"/>
     </row>
-    <row r="12" spans="1:22" ht="13.5">
+    <row r="12" spans="1:22" ht="14.4">
       <c r="A12" s="95"/>
       <c r="B12" s="81"/>
       <c r="C12" s="82"/>
@@ -4730,7 +4742,7 @@
       <c r="U12" s="81"/>
       <c r="V12" s="81"/>
     </row>
-    <row r="13" spans="1:22" ht="13.5">
+    <row r="13" spans="1:22" ht="14.4">
       <c r="A13" s="95"/>
       <c r="B13" s="89"/>
       <c r="C13" s="90"/>
@@ -4754,7 +4766,7 @@
       <c r="U13" s="94"/>
       <c r="V13" s="94"/>
     </row>
-    <row r="14" spans="1:22" ht="13.5">
+    <row r="14" spans="1:22" ht="14.4">
       <c r="A14" s="95"/>
       <c r="B14" s="81"/>
       <c r="C14" s="82"/>
@@ -4778,7 +4790,7 @@
       <c r="U14" s="81"/>
       <c r="V14" s="81"/>
     </row>
-    <row r="15" spans="1:22" ht="13.5">
+    <row r="15" spans="1:22" ht="14.4">
       <c r="A15" s="95"/>
       <c r="B15" s="81"/>
       <c r="C15" s="82"/>
@@ -4802,7 +4814,7 @@
       <c r="U15" s="81"/>
       <c r="V15" s="81"/>
     </row>
-    <row r="16" spans="1:22" ht="13.5">
+    <row r="16" spans="1:22" ht="14.4">
       <c r="A16" s="95"/>
       <c r="B16" s="89"/>
       <c r="C16" s="90"/>
@@ -4826,7 +4838,7 @@
       <c r="U16" s="94"/>
       <c r="V16" s="94"/>
     </row>
-    <row r="17" spans="1:22" ht="13.5">
+    <row r="17" spans="1:22" ht="14.4">
       <c r="A17" s="95"/>
       <c r="B17" s="81"/>
       <c r="C17" s="82"/>
@@ -4850,7 +4862,7 @@
       <c r="U17" s="81"/>
       <c r="V17" s="81"/>
     </row>
-    <row r="18" spans="1:22" ht="13.5">
+    <row r="18" spans="1:22" ht="14.4">
       <c r="A18" s="95"/>
       <c r="B18" s="81"/>
       <c r="C18" s="82"/>
@@ -4874,7 +4886,7 @@
       <c r="U18" s="81"/>
       <c r="V18" s="81"/>
     </row>
-    <row r="19" spans="1:22" ht="13.5">
+    <row r="19" spans="1:22" ht="14.4">
       <c r="A19" s="95"/>
       <c r="B19" s="89"/>
       <c r="C19" s="90"/>
@@ -4898,7 +4910,7 @@
       <c r="U19" s="94"/>
       <c r="V19" s="94"/>
     </row>
-    <row r="20" spans="1:22" ht="13.5">
+    <row r="20" spans="1:22" ht="14.4">
       <c r="A20" s="95"/>
       <c r="B20" s="81"/>
       <c r="C20" s="82"/>
@@ -4922,7 +4934,7 @@
       <c r="U20" s="81"/>
       <c r="V20" s="81"/>
     </row>
-    <row r="21" spans="1:22" ht="13.5">
+    <row r="21" spans="1:22" ht="14.4">
       <c r="A21" s="95"/>
       <c r="B21" s="81"/>
       <c r="C21" s="82"/>
@@ -4946,7 +4958,7 @@
       <c r="U21" s="81"/>
       <c r="V21" s="81"/>
     </row>
-    <row r="22" spans="1:22" ht="13.5">
+    <row r="22" spans="1:22" ht="14.4">
       <c r="A22" s="95"/>
       <c r="B22" s="89"/>
       <c r="C22" s="90"/>
@@ -4970,7 +4982,7 @@
       <c r="U22" s="94"/>
       <c r="V22" s="94"/>
     </row>
-    <row r="23" spans="1:22" ht="13.5">
+    <row r="23" spans="1:22" ht="14.4">
       <c r="A23" s="95"/>
       <c r="B23" s="81"/>
       <c r="C23" s="82"/>
@@ -4994,7 +5006,7 @@
       <c r="U23" s="81"/>
       <c r="V23" s="81"/>
     </row>
-    <row r="24" spans="1:22" ht="13.5">
+    <row r="24" spans="1:22" ht="14.4">
       <c r="A24" s="95"/>
       <c r="B24" s="81"/>
       <c r="C24" s="82"/>
@@ -5018,7 +5030,7 @@
       <c r="U24" s="81"/>
       <c r="V24" s="81"/>
     </row>
-    <row r="25" spans="1:22" ht="13.5">
+    <row r="25" spans="1:22" ht="14.4">
       <c r="A25" s="95"/>
       <c r="B25" s="89"/>
       <c r="C25" s="90"/>
@@ -5042,7 +5054,7 @@
       <c r="U25" s="94"/>
       <c r="V25" s="94"/>
     </row>
-    <row r="26" spans="1:22" ht="13.5">
+    <row r="26" spans="1:22" ht="14.4">
       <c r="A26" s="95"/>
       <c r="B26" s="81"/>
       <c r="C26" s="82"/>
@@ -5066,7 +5078,7 @@
       <c r="U26" s="81"/>
       <c r="V26" s="81"/>
     </row>
-    <row r="27" spans="1:22" ht="13.5">
+    <row r="27" spans="1:22" ht="14.4">
       <c r="A27" s="95"/>
       <c r="B27" s="81"/>
       <c r="C27" s="82"/>
@@ -5090,7 +5102,7 @@
       <c r="U27" s="81"/>
       <c r="V27" s="81"/>
     </row>
-    <row r="28" spans="1:22" ht="13.5">
+    <row r="28" spans="1:22" ht="14.4">
       <c r="A28" s="95"/>
       <c r="B28" s="89"/>
       <c r="C28" s="90"/>
@@ -5411,38 +5423,38 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:Y39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="8.125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="8.109375" style="6" customWidth="1"/>
     <col min="2" max="2" width="9" style="6"/>
-    <col min="3" max="3" width="9.125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="6" customWidth="1"/>
     <col min="4" max="4" width="7" style="6" customWidth="1"/>
     <col min="5" max="10" width="9" style="6"/>
     <col min="11" max="11" width="8" style="6" customWidth="1"/>
     <col min="12" max="14" width="9" style="6"/>
-    <col min="15" max="15" width="8.125" style="6" customWidth="1"/>
-    <col min="16" max="16" width="6.875" style="6" customWidth="1"/>
+    <col min="15" max="15" width="8.109375" style="6" customWidth="1"/>
+    <col min="16" max="16" width="6.88671875" style="6" customWidth="1"/>
     <col min="17" max="17" width="9" style="6"/>
-    <col min="18" max="18" width="7.25" style="6" customWidth="1"/>
+    <col min="18" max="18" width="7.21875" style="6" customWidth="1"/>
     <col min="19" max="19" width="9" style="6"/>
-    <col min="20" max="20" width="10.125" style="6" customWidth="1"/>
-    <col min="21" max="22" width="6.5" style="6" customWidth="1"/>
+    <col min="20" max="20" width="10.109375" style="6" customWidth="1"/>
+    <col min="21" max="22" width="6.44140625" style="6" customWidth="1"/>
     <col min="23" max="24" width="9" style="6"/>
-    <col min="25" max="25" width="13.75" style="6" customWidth="1"/>
+    <col min="25" max="25" width="13.77734375" style="6" customWidth="1"/>
     <col min="26" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B1" s="123" t="s">
+      <c r="B1" s="122" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="123"/>
-    </row>
-    <row r="2" spans="1:25" ht="12" thickTop="1">
+      <c r="C1" s="122"/>
+    </row>
+    <row r="2" spans="1:25" ht="12.6" thickTop="1">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -5458,7 +5470,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="12" thickBot="1">
+    <row r="4" spans="1:25" ht="12.6" thickBot="1">
       <c r="B4" s="5" t="s">
         <v>18</v>
       </c>
@@ -5466,8 +5478,8 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="12" thickTop="1"/>
-    <row r="6" spans="1:25" ht="12" thickBot="1">
+    <row r="5" spans="1:25" ht="12.6" thickTop="1"/>
+    <row r="6" spans="1:25" ht="12.6" thickBot="1">
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -5493,7 +5505,7 @@
       <c r="X6" s="7"/>
       <c r="Y6" s="7"/>
     </row>
-    <row r="7" spans="1:25" ht="12.75" thickTop="1" thickBot="1">
+    <row r="7" spans="1:25" ht="13.2" thickTop="1" thickBot="1">
       <c r="B7" s="18" t="s">
         <v>29</v>
       </c>
@@ -5565,7 +5577,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="12" thickTop="1">
+    <row r="8" spans="1:25" ht="12.6" thickTop="1">
       <c r="A8" s="63"/>
       <c r="B8" s="24" t="s">
         <v>198</v>
@@ -5588,7 +5600,7 @@
       </c>
       <c r="H8" s="20">
         <f>RTD("wdf.rtq",,F8,"LastPrice")</f>
-        <v>3824</v>
+        <v>3885</v>
       </c>
       <c r="I8" s="19">
         <v>3800</v>
@@ -5626,30 +5638,30 @@
       </c>
       <c r="S8" s="24">
         <f>_xll.dnetStandardBarrierNGreeks("price",G8,H8,I8,K8,L8*H8,P8,$C$3,Q8,R8,$C$4)*E8</f>
-        <v>-58.017269934179275</v>
+        <v>-70.095565001178798</v>
       </c>
       <c r="T8" s="25">
         <v>80</v>
       </c>
       <c r="U8" s="24">
         <f>T8/10000*P8*H8</f>
-        <v>2.5144109589041097</v>
+        <v>2.5545205479452053</v>
       </c>
       <c r="V8" s="24">
         <f>IF(S8&lt;=0,ABS(S8)+U8,S8-U8)</f>
-        <v>60.531680893083383</v>
+        <v>72.650085549124</v>
       </c>
       <c r="W8" s="26">
         <f>V8/H8</f>
-        <v>1.5829414459488333E-2</v>
+        <v>1.8700150720495239E-2</v>
       </c>
       <c r="X8" s="24">
         <f>_xll.dnetStandardBarrierNGreeks("delta",G8,H8,I8,K8,L8*H8,P8,$C$3,Q8,R8,$C$4)</f>
-        <v>0.17645118228415413</v>
+        <v>0.18576725714893882</v>
       </c>
       <c r="Y8" s="24">
         <f>_xll.dnetStandardBarrierNGreeks("vega",G8,H8,I8,K8,L8*H8,P8,$C$3,Q8,R8,$C$4)</f>
-        <v>0.52086502819191338</v>
+        <v>0.22030353867983621</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -6566,12 +6578,12 @@
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1">
+    <row r="1" spans="1:6" ht="15" thickBot="1">
       <c r="A1" s="96">
         <v>43080</v>
       </c>
@@ -6585,7 +6597,7 @@
       </c>
       <c r="F1" s="99"/>
     </row>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1">
+    <row r="2" spans="1:6" ht="15" thickBot="1">
       <c r="A2" s="100" t="s">
         <v>51</v>
       </c>
@@ -6605,7 +6617,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" thickBot="1">
+    <row r="3" spans="1:6" ht="15" thickBot="1">
       <c r="A3" s="104" t="s">
         <v>57</v>
       </c>
@@ -6625,7 +6637,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" thickBot="1">
+    <row r="4" spans="1:6" ht="15" thickBot="1">
       <c r="A4" s="100" t="s">
         <v>59</v>
       </c>
@@ -6645,7 +6657,7 @@
         <v>0.185</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" thickBot="1">
+    <row r="5" spans="1:6" ht="15" thickBot="1">
       <c r="A5" s="104" t="s">
         <v>61</v>
       </c>
@@ -6657,7 +6669,7 @@
       <c r="E5" s="107"/>
       <c r="F5" s="107"/>
     </row>
-    <row r="6" spans="1:6" ht="15.75" thickBot="1">
+    <row r="6" spans="1:6" ht="15" thickBot="1">
       <c r="A6" s="100" t="s">
         <v>63</v>
       </c>
@@ -6677,7 +6689,7 @@
         <v>0.315</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" thickBot="1">
+    <row r="7" spans="1:6" ht="15" thickBot="1">
       <c r="A7" s="104" t="s">
         <v>65</v>
       </c>
@@ -6697,7 +6709,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" thickBot="1">
+    <row r="8" spans="1:6" ht="15" thickBot="1">
       <c r="A8" s="100" t="s">
         <v>67</v>
       </c>
@@ -6717,7 +6729,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" thickBot="1">
+    <row r="9" spans="1:6" ht="15" thickBot="1">
       <c r="A9" s="104" t="s">
         <v>69</v>
       </c>
@@ -6737,7 +6749,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" thickBot="1">
+    <row r="10" spans="1:6" ht="15" thickBot="1">
       <c r="A10" s="100" t="s">
         <v>71</v>
       </c>
@@ -6757,7 +6769,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" thickBot="1">
+    <row r="11" spans="1:6" ht="15" thickBot="1">
       <c r="A11" s="104" t="s">
         <v>73</v>
       </c>
@@ -6777,7 +6789,7 @@
         <v>0.39500000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" thickBot="1">
+    <row r="12" spans="1:6" ht="15" thickBot="1">
       <c r="A12" s="100" t="s">
         <v>75</v>
       </c>
@@ -6797,7 +6809,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" thickBot="1">
+    <row r="13" spans="1:6" ht="15" thickBot="1">
       <c r="A13" s="104" t="s">
         <v>77</v>
       </c>
@@ -6817,7 +6829,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" thickBot="1">
+    <row r="14" spans="1:6" ht="15" thickBot="1">
       <c r="A14" s="100" t="s">
         <v>79</v>
       </c>
@@ -6837,7 +6849,7 @@
         <v>0.19500000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75" thickBot="1">
+    <row r="15" spans="1:6" ht="29.4" thickBot="1">
       <c r="A15" s="104" t="s">
         <v>81</v>
       </c>
@@ -6849,7 +6861,7 @@
       <c r="E15" s="107"/>
       <c r="F15" s="107"/>
     </row>
-    <row r="16" spans="1:6" ht="15.75" thickBot="1">
+    <row r="16" spans="1:6" ht="15" thickBot="1">
       <c r="A16" s="100" t="s">
         <v>83</v>
       </c>
@@ -6869,7 +6881,7 @@
         <v>0.23499999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.75" thickBot="1">
+    <row r="17" spans="1:6" ht="15" thickBot="1">
       <c r="A17" s="104" t="s">
         <v>85</v>
       </c>
@@ -6889,7 +6901,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75" thickBot="1">
+    <row r="18" spans="1:6" ht="15" thickBot="1">
       <c r="A18" s="100" t="s">
         <v>87</v>
       </c>
@@ -6901,7 +6913,7 @@
       <c r="E18" s="107"/>
       <c r="F18" s="107"/>
     </row>
-    <row r="19" spans="1:6" ht="15.75" thickBot="1">
+    <row r="19" spans="1:6" ht="15" thickBot="1">
       <c r="A19" s="104" t="s">
         <v>89</v>
       </c>
@@ -6913,7 +6925,7 @@
       <c r="E19" s="107"/>
       <c r="F19" s="107"/>
     </row>
-    <row r="20" spans="1:6" ht="15.75" thickBot="1">
+    <row r="20" spans="1:6" ht="15" thickBot="1">
       <c r="A20" s="100" t="s">
         <v>91</v>
       </c>
@@ -6933,7 +6945,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15.75" thickBot="1">
+    <row r="21" spans="1:6" ht="15" thickBot="1">
       <c r="A21" s="104" t="s">
         <v>93</v>
       </c>
@@ -6945,7 +6957,7 @@
       <c r="E21" s="107"/>
       <c r="F21" s="107"/>
     </row>
-    <row r="22" spans="1:6" ht="15.75" thickBot="1">
+    <row r="22" spans="1:6" ht="15" thickBot="1">
       <c r="A22" s="100" t="s">
         <v>95</v>
       </c>
@@ -6965,7 +6977,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15.75" thickBot="1">
+    <row r="23" spans="1:6" ht="15" thickBot="1">
       <c r="A23" s="104" t="s">
         <v>97</v>
       </c>
@@ -6985,7 +6997,7 @@
         <v>0.17499999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15.75" thickBot="1">
+    <row r="24" spans="1:6" ht="15" thickBot="1">
       <c r="A24" s="100" t="s">
         <v>39</v>
       </c>
@@ -7005,7 +7017,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15.75" thickBot="1">
+    <row r="25" spans="1:6" ht="15" thickBot="1">
       <c r="A25" s="104" t="s">
         <v>100</v>
       </c>
@@ -7025,7 +7037,7 @@
         <v>0.155</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15.75" thickBot="1">
+    <row r="26" spans="1:6" ht="15" thickBot="1">
       <c r="A26" s="100" t="s">
         <v>102</v>
       </c>
@@ -7045,7 +7057,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15.75" thickBot="1">
+    <row r="27" spans="1:6" ht="15" thickBot="1">
       <c r="A27" s="104" t="s">
         <v>104</v>
       </c>
@@ -7057,7 +7069,7 @@
       <c r="E27" s="107"/>
       <c r="F27" s="107"/>
     </row>
-    <row r="28" spans="1:6" ht="15.75" thickBot="1">
+    <row r="28" spans="1:6" ht="15" thickBot="1">
       <c r="A28" s="100" t="s">
         <v>106</v>
       </c>
@@ -7069,7 +7081,7 @@
       <c r="E28" s="107"/>
       <c r="F28" s="107"/>
     </row>
-    <row r="29" spans="1:6" ht="15.75" thickBot="1">
+    <row r="29" spans="1:6" ht="15" thickBot="1">
       <c r="A29" s="104" t="s">
         <v>108</v>
       </c>
@@ -7089,7 +7101,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15.75" thickBot="1">
+    <row r="30" spans="1:6" ht="15" thickBot="1">
       <c r="A30" s="100" t="s">
         <v>110</v>
       </c>
@@ -7109,7 +7121,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15.75" thickBot="1">
+    <row r="31" spans="1:6" ht="15" thickBot="1">
       <c r="A31" s="104" t="s">
         <v>112</v>
       </c>
@@ -7121,7 +7133,7 @@
       <c r="E31" s="107"/>
       <c r="F31" s="107"/>
     </row>
-    <row r="32" spans="1:6" ht="15.75" thickBot="1">
+    <row r="32" spans="1:6" ht="15" thickBot="1">
       <c r="A32" s="100" t="s">
         <v>114</v>
       </c>
@@ -7141,7 +7153,7 @@
         <v>0.39500000000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15.75" thickBot="1">
+    <row r="33" spans="1:6" ht="15" thickBot="1">
       <c r="A33" s="108" t="s">
         <v>116</v>
       </c>
@@ -7176,7 +7188,7 @@
       <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
   </cols>
@@ -7368,31 +7380,31 @@
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="8.125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="8.109375" style="6" customWidth="1"/>
     <col min="2" max="2" width="9" style="6"/>
-    <col min="3" max="3" width="9.125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="6" customWidth="1"/>
     <col min="4" max="4" width="7" style="6" customWidth="1"/>
     <col min="5" max="11" width="9" style="6"/>
-    <col min="12" max="12" width="8.125" style="6" customWidth="1"/>
+    <col min="12" max="12" width="8.109375" style="6" customWidth="1"/>
     <col min="13" max="13" width="9" style="6"/>
-    <col min="14" max="14" width="7.25" style="6" customWidth="1"/>
+    <col min="14" max="14" width="7.21875" style="6" customWidth="1"/>
     <col min="15" max="15" width="9" style="6"/>
-    <col min="16" max="16" width="10.125" style="6" customWidth="1"/>
-    <col min="17" max="18" width="6.5" style="6" customWidth="1"/>
+    <col min="16" max="16" width="10.109375" style="6" customWidth="1"/>
+    <col min="17" max="18" width="6.44140625" style="6" customWidth="1"/>
     <col min="19" max="20" width="9" style="6"/>
-    <col min="21" max="21" width="13.75" style="6" customWidth="1"/>
+    <col min="21" max="21" width="13.77734375" style="6" customWidth="1"/>
     <col min="22" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B1" s="127" t="s">
+      <c r="B1" s="129" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="127"/>
-    </row>
-    <row r="2" spans="1:21" ht="12" thickTop="1">
+      <c r="C1" s="129"/>
+    </row>
+    <row r="2" spans="1:21" ht="12.6" thickTop="1">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -7408,7 +7420,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="12" thickBot="1">
+    <row r="4" spans="1:21" ht="12.6" thickBot="1">
       <c r="B4" s="5" t="s">
         <v>18</v>
       </c>
@@ -7416,8 +7428,8 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="12" thickTop="1"/>
-    <row r="6" spans="1:21" ht="12" thickBot="1">
+    <row r="5" spans="1:21" ht="12.6" thickTop="1"/>
+    <row r="6" spans="1:21" ht="12.6" thickBot="1">
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -7439,7 +7451,7 @@
       <c r="T6" s="7"/>
       <c r="U6" s="7"/>
     </row>
-    <row r="7" spans="1:21" ht="12.75" thickTop="1" thickBot="1">
+    <row r="7" spans="1:21" ht="13.2" thickTop="1" thickBot="1">
       <c r="B7" s="18" t="s">
         <v>29</v>
       </c>
@@ -7499,7 +7511,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="12" thickTop="1">
+    <row r="8" spans="1:21" ht="12.6" thickTop="1">
       <c r="A8" s="27"/>
       <c r="B8" s="24" t="s">
         <v>198</v>
@@ -7522,7 +7534,7 @@
       </c>
       <c r="H8" s="20">
         <f>RTD("wdf.rtq",,F8,"LastPrice")</f>
-        <v>3824</v>
+        <v>3885</v>
       </c>
       <c r="I8" s="19">
         <v>3800</v>
@@ -7547,30 +7559,30 @@
       </c>
       <c r="O8" s="24">
         <f>_xll.dnetGBlackScholesNGreeks("price",$G8,$H8,$I8,$M8,$C$3,$C$4,$N8)</f>
-        <v>144.59251016100643</v>
+        <v>180.31945487864687</v>
       </c>
       <c r="P8" s="25">
         <v>80</v>
       </c>
       <c r="Q8" s="24">
         <f>P8/10000*M8*H8*(-E8)</f>
-        <v>2.5144109589041097</v>
+        <v>2.5545205479452053</v>
       </c>
       <c r="R8" s="24">
         <f>O8+Q8</f>
-        <v>147.10692111991054</v>
+        <v>182.87397542659207</v>
       </c>
       <c r="S8" s="26">
         <f>R8/H8</f>
-        <v>3.846938313805192E-2</v>
+        <v>4.7071808346613148E-2</v>
       </c>
       <c r="T8" s="24">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$G8,$H8,$I8,$M8,$C$3,$C$4,$N8,$C$4)</f>
-        <v>0.54958804254283677</v>
+        <v>0.62112123737279035</v>
       </c>
       <c r="U8" s="24">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$G8,$H8,$I8,$M8,$C$3,$C$4,$N8)</f>
-        <v>4.3355974910599571</v>
+        <v>4.2315991562513773</v>
       </c>
     </row>
     <row r="9" spans="1:21">
